--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1625833803680481</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.492461740487043</v>
+        <v>-2.508111995973493</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04946985348015367</v>
+        <v>-0.06215913143824116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1891355856804186</v>
+        <v>0.1973936176825982</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1568525410851142</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.691855398094126</v>
+        <v>-2.707934907719304</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1068088621063201</v>
+        <v>-0.1163225354666812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2468571269064031</v>
+        <v>0.2532419172079469</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1575934682866244</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.980268187803912</v>
+        <v>-2.998461847064725</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1930057212492969</v>
+        <v>-0.2116315547450192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2598311142422178</v>
+        <v>0.2680555651383065</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1681937182749469</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.195416494335945</v>
+        <v>-3.213085996332123</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2863772567109991</v>
+        <v>-0.3040248579858126</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2711523271391238</v>
+        <v>0.2776553813360312</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1839236707958088</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.253535168642657</v>
+        <v>-3.264279662543654</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3498440871747094</v>
+        <v>-0.3603374528040702</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3055992417479328</v>
+        <v>0.3099341245298408</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1940336732981023</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.031333369783444</v>
+        <v>-3.044516874020304</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4031241621081496</v>
+        <v>-0.4199001146726906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.303917266347206</v>
+        <v>0.3094304079384773</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1895776084360912</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.661651383237498</v>
+        <v>-2.68181245730081</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5168750488227555</v>
+        <v>-0.5303819537117518</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2964403600736625</v>
+        <v>0.2964535005064807</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1656653386675945</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.237811832855475</v>
+        <v>-2.255460164154334</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5204142053951181</v>
+        <v>-0.5364732743470229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3022455112831156</v>
+        <v>0.2977368827783894</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1200719887003966</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.867762644214665</v>
+        <v>-1.883068328351661</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.586846393531464</v>
+        <v>-0.6096961461541851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3159042611735664</v>
+        <v>0.3128936420101127</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05064486982465494</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.363464953710983</v>
+        <v>-1.378801298857888</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.734670422543606</v>
+        <v>-0.7519486316514196</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3323940443122892</v>
+        <v>0.3259085106924728</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04715567127753191</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7965049192416803</v>
+        <v>-0.8215827052511282</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9074306129003779</v>
+        <v>-0.9204995033621016</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3821554033466395</v>
+        <v>0.3737469863910963</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1753186766766903</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2926131221072702</v>
+        <v>-0.3178047918678089</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.202731179479026</v>
+        <v>-1.218299672272385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4181850100859935</v>
+        <v>0.4079588332572689</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3322894667521903</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3026192835943882</v>
+        <v>0.2795081823633944</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.637110087005273</v>
+        <v>-1.650162916937997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5096628631737871</v>
+        <v>0.5050038497156975</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5148603742531647</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9086107836779527</v>
+        <v>0.8944132760419565</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.030973390032849</v>
+        <v>-2.04859398041798</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5981709784446725</v>
+        <v>0.5900487309149474</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7150063751858605</v>
       </c>
       <c r="E16" t="n">
-        <v>1.405281182954728</v>
+        <v>1.386024608683734</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.407572354409475</v>
+        <v>-2.433183057972105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7210749066411849</v>
+        <v>0.7105070785591877</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9287583725529277</v>
       </c>
       <c r="E17" t="n">
-        <v>1.936621884198222</v>
+        <v>1.923938446432498</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.764246772513516</v>
+        <v>-2.789648689199145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8322298278501551</v>
+        <v>0.8234549388237937</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.163210485914701</v>
       </c>
       <c r="E18" t="n">
-        <v>2.341018704177659</v>
+        <v>2.33025522965148</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.116600908316558</v>
+        <v>-3.131504349204508</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9727375558787537</v>
+        <v>0.9599008130634844</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.423896178420582</v>
       </c>
       <c r="E19" t="n">
-        <v>2.789409693232357</v>
+        <v>2.776735015755178</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.385657840485167</v>
+        <v>-3.400298472716754</v>
       </c>
       <c r="G19" t="n">
-        <v>1.152034381538524</v>
+        <v>1.138721663045618</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.706910380951828</v>
       </c>
       <c r="E20" t="n">
-        <v>3.093866221389093</v>
+        <v>3.085571688184641</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.655181258018822</v>
+        <v>-3.673431129131135</v>
       </c>
       <c r="G20" t="n">
-        <v>1.295873939310576</v>
+        <v>1.279846991416671</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.001898578471565</v>
       </c>
       <c r="E21" t="n">
-        <v>3.447447527612544</v>
+        <v>3.429636400951548</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.878073659625035</v>
+        <v>-3.898987388479211</v>
       </c>
       <c r="G21" t="n">
-        <v>1.415809589738271</v>
+        <v>1.39977242150773</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.290534438527382</v>
       </c>
       <c r="E22" t="n">
-        <v>3.769902068585912</v>
+        <v>3.751492322207644</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.052379310886034</v>
+        <v>-4.067064474584393</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486899331284616</v>
+        <v>1.468077851344711</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.55191683002404</v>
       </c>
       <c r="E23" t="n">
-        <v>3.969461441651313</v>
+        <v>3.954693055211771</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.165579759470367</v>
+        <v>-4.177025806479046</v>
       </c>
       <c r="G23" t="n">
-        <v>1.567715913212594</v>
+        <v>1.547954162302145</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.770814507255844</v>
       </c>
       <c r="E24" t="n">
-        <v>4.134771006600177</v>
+        <v>4.117190567537546</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.217710046532217</v>
+        <v>-4.238312785143028</v>
       </c>
       <c r="G24" t="n">
-        <v>1.61936657447658</v>
+        <v>1.601037130743312</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.934782802125299</v>
       </c>
       <c r="E25" t="n">
-        <v>4.226396324545153</v>
+        <v>4.213274872352156</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.249614287390708</v>
+        <v>-4.27013672335652</v>
       </c>
       <c r="G25" t="n">
-        <v>1.629645313036577</v>
+        <v>1.616119427522399</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.038400136934341</v>
       </c>
       <c r="E26" t="n">
-        <v>4.260314701745052</v>
+        <v>4.243982603800148</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.167833343698685</v>
+        <v>-4.18486553470318</v>
       </c>
       <c r="G26" t="n">
-        <v>1.584361921497044</v>
+        <v>1.572107737870047</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.083373378064609</v>
       </c>
       <c r="E27" t="n">
-        <v>4.218963219714337</v>
+        <v>4.203561172403341</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.087486897255978</v>
+        <v>-4.111854369869199</v>
       </c>
       <c r="G27" t="n">
-        <v>1.557821167300506</v>
+        <v>1.546546675942509</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.073685671049214</v>
       </c>
       <c r="E28" t="n">
-        <v>4.172399365999076</v>
+        <v>4.158575630674353</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.920223787961478</v>
+        <v>-3.944545269059835</v>
       </c>
       <c r="G28" t="n">
-        <v>1.475751864110528</v>
+        <v>1.460313315597259</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.017352534502468</v>
       </c>
       <c r="E29" t="n">
-        <v>4.003968218231849</v>
+        <v>3.999412868188214</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.743475476244389</v>
+        <v>-3.772368367915381</v>
       </c>
       <c r="G29" t="n">
-        <v>1.368166760483829</v>
+        <v>1.352332538937924</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.924742048333333</v>
       </c>
       <c r="E30" t="n">
-        <v>3.901031907726604</v>
+        <v>3.899622961318877</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.585574195308795</v>
+        <v>-3.610751264588425</v>
       </c>
       <c r="G30" t="n">
-        <v>1.27794892889849</v>
+        <v>1.261502947202494</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.803273730147729</v>
       </c>
       <c r="E31" t="n">
-        <v>3.742320300100555</v>
+        <v>3.740546341670101</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.430546289016109</v>
+        <v>-3.458372615556693</v>
       </c>
       <c r="G31" t="n">
-        <v>1.184003594537061</v>
+        <v>1.166182247539429</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.660068603986205</v>
       </c>
       <c r="E32" t="n">
-        <v>3.571576436157328</v>
+        <v>3.576198948413146</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.249817156179158</v>
+        <v>-3.271725907807288</v>
       </c>
       <c r="G32" t="n">
-        <v>1.059457112238276</v>
+        <v>1.044192309447825</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.50102103772244</v>
       </c>
       <c r="E33" t="n">
-        <v>3.39334252550774</v>
+        <v>3.395225987545012</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.113427493790967</v>
+        <v>-3.129661768513781</v>
       </c>
       <c r="G33" t="n">
-        <v>1.007156729573835</v>
+        <v>0.9920291713039303</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.331367058750414</v>
       </c>
       <c r="E34" t="n">
-        <v>3.184113253936251</v>
+        <v>3.197114982185793</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.094591413370154</v>
+        <v>-3.113709283072513</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9055607432160444</v>
+        <v>0.8914975600044118</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.158022801119527</v>
       </c>
       <c r="E35" t="n">
-        <v>2.867485764893699</v>
+        <v>2.886535012335785</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.983004317926275</v>
+        <v>-2.997088671835226</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8569995437124212</v>
+        <v>0.8428356171825159</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.986353642551122</v>
       </c>
       <c r="E36" t="n">
-        <v>2.592799617310591</v>
+        <v>2.604973498292588</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.929668031141335</v>
+        <v>-2.941009684711513</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7846424804231679</v>
+        <v>0.7729285145898073</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.820800536081901</v>
       </c>
       <c r="E37" t="n">
-        <v>2.315123291237302</v>
+        <v>2.334892342388206</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.868967261785851</v>
+        <v>-2.87633247438044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7326954293967273</v>
+        <v>0.7241672884977295</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.66684380512946</v>
       </c>
       <c r="E38" t="n">
-        <v>2.008158400460385</v>
+        <v>2.02622649558538</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.79929668698387</v>
+        <v>-2.802667208001733</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6587892550830198</v>
+        <v>0.6489981725853861</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.525945942390876</v>
       </c>
       <c r="E39" t="n">
-        <v>1.715480080253009</v>
+        <v>1.73612808035464</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.675103536323085</v>
+        <v>-2.680417381349947</v>
       </c>
       <c r="G39" t="n">
-        <v>0.628513697869937</v>
+        <v>0.6239452073934837</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.398593792560683</v>
       </c>
       <c r="E40" t="n">
-        <v>1.458628420100351</v>
+        <v>1.491004986516251</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.55958599141848</v>
+        <v>-2.563200340467524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5575363800265924</v>
+        <v>0.550891701164867</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.28599311401818</v>
       </c>
       <c r="E41" t="n">
-        <v>1.215117219354325</v>
+        <v>1.244957682236317</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.448685118577328</v>
+        <v>-2.449529756397918</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4919860609371555</v>
+        <v>0.4864597789130661</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.18541258658321</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9928847594852028</v>
+        <v>1.026787076156103</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.330486925377814</v>
+        <v>-2.328784509303814</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4234879047521739</v>
+        <v>0.4191442616817205</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.093695465266645</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7846643811445314</v>
+        <v>0.8229351617034303</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.22715859196016</v>
+        <v>-2.22374426949957</v>
       </c>
       <c r="G43" t="n">
-        <v>0.36356607105319</v>
+        <v>0.360654735159918</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.00825171325045</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6180466131062126</v>
+        <v>0.6599602136519286</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.165213861631222</v>
+        <v>-2.161598782558132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2686863059135791</v>
+        <v>0.2678204973956702</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9245138211379313</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4405412664539875</v>
+        <v>0.4816679010787037</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.056198640899479</v>
+        <v>-2.054472864056025</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2361476741595878</v>
+        <v>0.2366966522417695</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8397455324899824</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2740403022629413</v>
+        <v>0.3123432038798401</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.982706390219544</v>
+        <v>-1.98127116294618</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2151302818909571</v>
+        <v>0.2121240428717761</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7532266971749116</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08696726047099151</v>
+        <v>0.132135308211343</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.930004494330103</v>
+        <v>-1.925390012338786</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1407904732942498</v>
+        <v>0.1420548749409767</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6636793417629656</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.02975774420479532</v>
+        <v>0.01080093171255742</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.866580735285075</v>
+        <v>-1.870460083062619</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1270514207587989</v>
+        <v>0.1297904709773436</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5721944720594733</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1589924409234879</v>
+        <v>-0.119522960881953</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.792707412053413</v>
+        <v>-1.795893967011821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07543872074517644</v>
+        <v>0.07822595255072114</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4813588425601143</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.268053653170095</v>
+        <v>-0.2267167716202879</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.764743110968239</v>
+        <v>-1.771584896322237</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03407263823355117</v>
+        <v>0.04002379425209503</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3931412156727889</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3837478638937002</v>
+        <v>-0.3403931958822574</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.713911536683252</v>
+        <v>-1.719830571643796</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03079483026946115</v>
+        <v>0.03786000298136834</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3100623727587242</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4299948871732333</v>
+        <v>-0.3902990996776076</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.714121783608343</v>
+        <v>-1.716570284256797</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03074181661806779</v>
+        <v>-0.02302108231334259</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2346069025972894</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5391407822091131</v>
+        <v>-0.4923214200779438</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.708417375717163</v>
+        <v>-1.70911965884889</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03604617133233909</v>
+        <v>-0.02699971336106879</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1670897767514765</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5566321583381993</v>
+        <v>-0.5196812612534819</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.688097886435986</v>
+        <v>-1.693723451730258</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06906953905251204</v>
+        <v>-0.06006250237969628</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1077316700481845</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.681675056987893</v>
+        <v>-0.6416580589122673</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.671784769116264</v>
+        <v>-1.674701945201899</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09850410856523141</v>
+        <v>-0.08638570941068921</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05606240260402122</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.762304752760235</v>
+        <v>-0.7236748003709726</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.626711624501821</v>
+        <v>-1.632605838644819</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.115764797095954</v>
+        <v>-0.1058174894525931</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01056916956438197</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8943252212363814</v>
+        <v>-0.8566004986634824</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.673741233558081</v>
+        <v>-1.675874363818899</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1135849452962274</v>
+        <v>-0.1043107198227753</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.029676517612289</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9624218641963631</v>
+        <v>-0.9240371998863733</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.636596150077273</v>
+        <v>-1.642634908981271</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1594158548698514</v>
+        <v>-0.1486260994780361</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06527754671538831</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.084592848251239</v>
+        <v>-1.044320341759705</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.642345819459271</v>
+        <v>-1.64912336269727</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1847082679486628</v>
+        <v>-0.1732176894732113</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09691891554364725</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.110643026289232</v>
+        <v>-1.07670420841606</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.646175525601725</v>
+        <v>-1.65159814421136</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2017236684001128</v>
+        <v>-0.1874648387442984</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1243953618806654</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.197115834521391</v>
+        <v>-1.157456548228038</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.681812379404624</v>
+        <v>-1.691467677429804</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2514733470497358</v>
+        <v>-0.2421597002778292</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1473887073400164</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.248141595202468</v>
+        <v>-1.208558231409842</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.676160533244717</v>
+        <v>-1.691034043146804</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3004302195859954</v>
+        <v>-0.2890549849097257</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1661348195017896</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.322786553850175</v>
+        <v>-1.279664033485187</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.733905435240156</v>
+        <v>-1.74287743075879</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3191042346687176</v>
+        <v>-0.3076822784535388</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1804409804417634</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.395946643589429</v>
+        <v>-1.350726034117804</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.760511891600785</v>
+        <v>-1.77502914976869</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3686991482207043</v>
+        <v>-0.3573647948909801</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1903492871526259</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.423140039282603</v>
+        <v>-1.373362619719253</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.843328739413308</v>
+        <v>-1.859660837358213</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3690480997144315</v>
+        <v>-0.3559792092527077</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1962273492339291</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.446884801385051</v>
+        <v>-1.399932574877609</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.953406145131188</v>
+        <v>-1.969719992474956</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4004274532842412</v>
+        <v>-0.3869745701746085</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1984928684900704</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.485227124300404</v>
+        <v>-1.441482623448689</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.023931578090396</v>
+        <v>-2.044607319105754</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3742575513027937</v>
+        <v>-0.3582233031684344</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1980509054650169</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.510858268536307</v>
+        <v>-1.469043951260772</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.13537339874923</v>
+        <v>-2.157550799226088</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4450231621729566</v>
+        <v>-0.42518548876178</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1957169956269771</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.504915872806308</v>
+        <v>-1.464907635019228</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.290265520569461</v>
+        <v>-2.309116931495229</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4607887614585887</v>
+        <v>-0.4421994291651391</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1919313968453015</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.520104753096031</v>
+        <v>-1.484929274489859</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.420379896262926</v>
+        <v>-2.436290040309558</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4723669428194947</v>
+        <v>-0.4556523122747719</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.187020360108171</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.56742053157811</v>
+        <v>-1.526879376237848</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.588913247396517</v>
+        <v>-2.603004901545923</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5363301896341138</v>
+        <v>-0.5172605015187554</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1811144385766289</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.578188386248561</v>
+        <v>-1.535038124969846</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.68182048756531</v>
+        <v>-2.69762185802917</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.552414079403564</v>
+        <v>-0.5342364806717508</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1742226026830112</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.56346818139602</v>
+        <v>-1.521415876281667</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.808488419740185</v>
+        <v>-2.823781693468409</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5529776579666549</v>
+        <v>-0.5371945381039318</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1662083702144913</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.614520222942733</v>
+        <v>-1.575918011467198</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.947022162749876</v>
+        <v>-2.96095175156119</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5593493078353804</v>
+        <v>-0.5459708871783839</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1565372412527985</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.502261505377036</v>
+        <v>-1.457851222595866</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.01693802563113</v>
+        <v>-3.027440151549036</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6012818890062782</v>
+        <v>-0.5838299341756465</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1445759350019771</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.381759356290069</v>
+        <v>-1.345843633301806</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.078158572106977</v>
+        <v>-3.090476267825928</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5908556855890992</v>
+        <v>-0.574739674761649</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1294224613211932</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.277110409374188</v>
+        <v>-1.237915418373744</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.164962081231726</v>
+        <v>-3.170157662363225</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5545194687506544</v>
+        <v>-0.5437545341763845</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1103796158340508</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.131552374999136</v>
+        <v>-1.098178595737145</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.213428377609441</v>
+        <v>-3.225515385730028</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.570661760443741</v>
+        <v>-0.5549399626008361</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08753550184374817</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9240970618581006</v>
+        <v>-0.8945442284500177</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.286471663501421</v>
+        <v>-3.295020975097737</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5724678399321951</v>
+        <v>-0.5560072577552904</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06088372285915192</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7096218374959764</v>
+        <v>-0.6793185393691663</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.313974589389868</v>
+        <v>-3.330746891834182</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5288678838414795</v>
+        <v>-0.5143944271163016</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.03058103915388007</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4575503747929532</v>
+        <v>-0.4302372551563242</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.357049658191902</v>
+        <v>-3.375247697596988</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4919680884399439</v>
+        <v>-0.4787838541790384</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.002400524396539035</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1756311489674834</v>
+        <v>-0.1514600528224899</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.301210848979144</v>
+        <v>-3.317197645550549</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4566086437743171</v>
+        <v>-0.4429893151823207</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0372824787672837</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1053959874744411</v>
+        <v>0.1307161414669798</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.284085944920876</v>
+        <v>-3.304631011632098</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4327514579688689</v>
+        <v>-0.424147394569144</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.07309907161863743</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4441986869217138</v>
+        <v>0.4613002302105274</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.239357371655888</v>
+        <v>-3.259811185361428</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3862956478123359</v>
+        <v>-0.3760154492042478</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1086094801084873</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7126256083390963</v>
+        <v>0.7357600703395446</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.135303394337052</v>
+        <v>-3.162516500679454</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3463866932954376</v>
+        <v>-0.3359838506477131</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.142220165851955</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9814715635585695</v>
+        <v>0.9969320127932018</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.032618942127489</v>
+        <v>-3.070776568959342</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2634194605295508</v>
+        <v>-0.2559337939674619</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1725442329449645</v>
       </c>
       <c r="E87" t="n">
-        <v>1.1722414471167</v>
+        <v>1.185774632871333</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.902936740668933</v>
+        <v>-2.945952677523285</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2301785456438324</v>
+        <v>-0.2234170629348342</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1979891742764113</v>
       </c>
       <c r="E88" t="n">
-        <v>1.341925316145927</v>
+        <v>1.354008674146288</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.666603136337815</v>
+        <v>-2.708342991160713</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2302997296353778</v>
+        <v>-0.2224242302330163</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.217506741827416</v>
       </c>
       <c r="E89" t="n">
-        <v>1.489314250826979</v>
+        <v>1.498309607115067</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.424281874785879</v>
+        <v>-2.470839158284731</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1563453737346704</v>
+        <v>-0.1506322055549447</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2291746505141445</v>
       </c>
       <c r="E90" t="n">
-        <v>1.611330469784219</v>
+        <v>1.617140001137944</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.132383220259049</v>
+        <v>-2.184325891141217</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1569469135481248</v>
+        <v>-0.1512410456088536</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2314205353911576</v>
       </c>
       <c r="E91" t="n">
-        <v>1.669748453949567</v>
+        <v>1.668704519564567</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.836789184014128</v>
+        <v>-1.89118035554475</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09597384522368663</v>
+        <v>-0.08781947663596155</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2227576431073303</v>
       </c>
       <c r="E92" t="n">
-        <v>1.647847732585936</v>
+        <v>1.639982453520211</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.490176687328585</v>
+        <v>-1.540161433720844</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1112182073408644</v>
+        <v>-0.1009934905602307</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2027460627070651</v>
       </c>
       <c r="E93" t="n">
-        <v>1.683891939806199</v>
+        <v>1.672106431616384</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.141089409128951</v>
+        <v>-1.194092074925119</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.138233477166948</v>
+        <v>-0.1283883728899507</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1724650343923703</v>
       </c>
       <c r="E94" t="n">
-        <v>1.650137087992481</v>
+        <v>1.631912767721758</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9083884044480139</v>
+        <v>-0.9519416389998204</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.139448237178584</v>
+        <v>-0.1312705078214044</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1336063990847372</v>
       </c>
       <c r="E95" t="n">
-        <v>1.649088773463208</v>
+        <v>1.62680551949976</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6228730801746361</v>
+        <v>-0.6594443647557171</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2027968037469307</v>
+        <v>-0.1943402052043875</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08872738971278324</v>
       </c>
       <c r="E96" t="n">
-        <v>1.56325838639105</v>
+        <v>1.53679501474333</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3502090991974365</v>
+        <v>-0.3830207599444277</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2296018266479235</v>
+        <v>-0.2217234071493801</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04192581341384759</v>
       </c>
       <c r="E97" t="n">
-        <v>1.440523823773083</v>
+        <v>1.416377548445634</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1675424825438492</v>
+        <v>-0.1882839257232982</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.328581406826806</v>
+        <v>-0.3249152260705342</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.00410679379113904</v>
       </c>
       <c r="E98" t="n">
-        <v>1.356363731716923</v>
+        <v>1.338613927075746</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.004117839680347662</v>
+        <v>-0.02354961972225153</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3229397810035348</v>
+        <v>-0.3233077131224438</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04605597113547378</v>
       </c>
       <c r="E99" t="n">
-        <v>1.212946127843144</v>
+        <v>1.193946522036149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1024992520620783</v>
+        <v>0.08789877115299127</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3389696489936214</v>
+        <v>-0.3377315282125308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08471373906109622</v>
       </c>
       <c r="E100" t="n">
-        <v>1.051920343993005</v>
+        <v>1.030692704799284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1816221782046025</v>
+        <v>0.1742138941913317</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3726952998455214</v>
+        <v>-0.3737830356732484</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1180122334385994</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8991087907023189</v>
+        <v>0.875536314274598</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2321909438332252</v>
+        <v>0.2229006578307732</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3274703102296245</v>
+        <v>-0.3320315004656232</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.15168528293488</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7895745228742574</v>
+        <v>0.7678241864639905</v>
       </c>
       <c r="F102" t="n">
-        <v>0.252536713980038</v>
+        <v>0.2432522681699495</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3506091523743455</v>
+        <v>-0.3513260359869817</v>
       </c>
     </row>
   </sheetData>
